--- a/output/missing-values-current_living.xlsx
+++ b/output/missing-values-current_living.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="1569">
   <si>
     <t xml:space="preserve">pid</t>
   </si>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">TSH0018</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0019</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0020</t>
   </si>
   <si>
@@ -161,6 +164,9 @@
     <t xml:space="preserve">TSH0055</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0056</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0057</t>
   </si>
   <si>
@@ -200,6 +206,9 @@
     <t xml:space="preserve">TSH0072</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0073</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0074</t>
   </si>
   <si>
@@ -704,12 +713,18 @@
     <t xml:space="preserve">TSH0265</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0266</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0267</t>
   </si>
   <si>
     <t xml:space="preserve">TSH0268</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0269</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0270</t>
   </si>
   <si>
@@ -758,6 +773,9 @@
     <t xml:space="preserve">TSH0289</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0292</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0293</t>
   </si>
   <si>
@@ -770,6 +788,9 @@
     <t xml:space="preserve">TSH0296</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0297</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0298</t>
   </si>
   <si>
@@ -920,6 +941,9 @@
     <t xml:space="preserve">TSH0352</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0353</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0354</t>
   </si>
   <si>
@@ -1667,6 +1691,9 @@
     <t xml:space="preserve">TSH0696</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0697</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0698</t>
   </si>
   <si>
@@ -1862,6 +1889,9 @@
     <t xml:space="preserve">TSH0791</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0792</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0793</t>
   </si>
   <si>
@@ -1871,6 +1901,9 @@
     <t xml:space="preserve">TSH0796</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0797</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0798</t>
   </si>
   <si>
@@ -1898,6 +1931,9 @@
     <t xml:space="preserve">TSH0806</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0807</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0808</t>
   </si>
   <si>
@@ -1940,6 +1976,9 @@
     <t xml:space="preserve">TSH0822</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0824</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0826</t>
   </si>
   <si>
@@ -2054,6 +2093,9 @@
     <t xml:space="preserve">TSH0873</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0874</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0878</t>
   </si>
   <si>
@@ -2180,6 +2222,9 @@
     <t xml:space="preserve">TSH0932</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0933</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0935</t>
   </si>
   <si>
@@ -2195,6 +2240,9 @@
     <t xml:space="preserve">TSH0940</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0942</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0943</t>
   </si>
   <si>
@@ -2714,6 +2762,9 @@
     <t xml:space="preserve">TSH1171</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1176</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1175</t>
   </si>
   <si>
@@ -2762,6 +2813,9 @@
     <t xml:space="preserve">TSH1184</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1187</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1189</t>
   </si>
   <si>
@@ -2990,6 +3044,9 @@
     <t xml:space="preserve">TSH1274</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1276</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1277</t>
   </si>
   <si>
@@ -3008,6 +3065,12 @@
     <t xml:space="preserve">TSH1282</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1286</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1287</t>
   </si>
   <si>
@@ -3125,6 +3188,9 @@
     <t xml:space="preserve">TSH1338</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1339</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1340</t>
   </si>
   <si>
@@ -3344,6 +3410,9 @@
     <t xml:space="preserve">TSH1431</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1433</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1434</t>
   </si>
   <si>
@@ -3362,21 +3431,36 @@
     <t xml:space="preserve">TSH1441</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1443</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1444</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1446</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1447</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1448</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1449</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1451</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1452</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1454</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1455</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1456</t>
   </si>
   <si>
@@ -3506,6 +3590,9 @@
     <t xml:space="preserve">TSH1506</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1507</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1508</t>
   </si>
   <si>
@@ -3560,6 +3647,9 @@
     <t xml:space="preserve">TSH1531</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1532</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1533</t>
   </si>
   <si>
@@ -3707,15 +3797,48 @@
     <t xml:space="preserve">TSH1595</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1598</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1599</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1601</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1602</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1603</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1604</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1610</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1611</t>
   </si>
   <si>
@@ -3731,9 +3854,15 @@
     <t xml:space="preserve">TSH1615</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1616</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1617</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1619</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1620</t>
   </si>
   <si>
@@ -3776,6 +3905,9 @@
     <t xml:space="preserve">TSH1636</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1637</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1638</t>
   </si>
   <si>
@@ -3788,6 +3920,15 @@
     <t xml:space="preserve">TSH1642</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1646</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1647</t>
   </si>
   <si>
@@ -3797,18 +3938,204 @@
     <t xml:space="preserve">TSH1652</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1655</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1656</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1657</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1709</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1710</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1713</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1715</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1739</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1740</t>
   </si>
   <si>
@@ -3821,6 +4148,54 @@
     <t xml:space="preserve">TSH1744</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1761</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1762</t>
   </si>
   <si>
@@ -3872,18 +4247,54 @@
     <t xml:space="preserve">TSH1782</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1783</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1784</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1785</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1786</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1787</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1794</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1795</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1799</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1800</t>
   </si>
   <si>
@@ -3899,24 +4310,105 @@
     <t xml:space="preserve">TSH1804</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1805</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1806</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1808</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1809</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1811</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1812</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1819</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1820</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1821</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1822</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1837</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1838</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1839</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1840</t>
   </si>
   <si>
@@ -3932,9 +4424,132 @@
     <t xml:space="preserve">TSH1848</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1899</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1900</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1902</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1903</t>
   </si>
   <si>
@@ -3962,6 +4577,9 @@
     <t xml:space="preserve">TSH1914</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1915</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1916</t>
   </si>
   <si>
@@ -3971,6 +4589,9 @@
     <t xml:space="preserve">TSH1919</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1920</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1921</t>
   </si>
   <si>
@@ -4010,7 +4631,94 @@
     <t xml:space="preserve">TSH1933</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1936</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1966</t>
   </si>
 </sst>
 </file>
@@ -4508,7 +5216,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28"/>
     </row>
@@ -4532,7 +5240,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32"/>
     </row>
@@ -4544,7 +5252,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34"/>
     </row>
@@ -4640,7 +5348,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B50"/>
     </row>
@@ -4796,19 +5504,19 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B78"/>
     </row>
@@ -4826,31 +5534,31 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B85"/>
     </row>
@@ -5750,19 +6458,19 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B235"/>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B236"/>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B237"/>
     </row>
@@ -6026,73 +6734,73 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B281"/>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B282"/>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B283"/>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B284"/>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B285"/>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B286"/>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B287"/>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B288"/>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B289"/>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B290"/>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B291"/>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B292"/>
     </row>
@@ -10982,133 +11690,133 @@
     </row>
     <row r="1107">
       <c r="A1107" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B1107"/>
     </row>
     <row r="1108">
       <c r="A1108" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B1108"/>
     </row>
     <row r="1109">
       <c r="A1109" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B1109"/>
     </row>
     <row r="1110">
       <c r="A1110" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B1110"/>
     </row>
     <row r="1111">
       <c r="A1111" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B1111"/>
     </row>
     <row r="1112">
       <c r="A1112" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B1112"/>
     </row>
     <row r="1113">
       <c r="A1113" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B1113"/>
     </row>
     <row r="1114">
       <c r="A1114" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B1114"/>
     </row>
     <row r="1115">
       <c r="A1115" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B1115"/>
     </row>
     <row r="1116">
       <c r="A1116" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B1116"/>
     </row>
     <row r="1117">
       <c r="A1117" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B1117"/>
     </row>
     <row r="1118">
       <c r="A1118" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B1118"/>
     </row>
     <row r="1119">
       <c r="A1119" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B1119"/>
     </row>
     <row r="1120">
       <c r="A1120" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B1120"/>
     </row>
     <row r="1121">
       <c r="A1121" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B1121"/>
     </row>
     <row r="1122">
       <c r="A1122" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B1122"/>
     </row>
     <row r="1123">
       <c r="A1123" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B1123"/>
     </row>
     <row r="1124">
       <c r="A1124" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B1124"/>
     </row>
     <row r="1125">
       <c r="A1125" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B1125"/>
     </row>
     <row r="1126">
       <c r="A1126" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B1126"/>
     </row>
     <row r="1127">
       <c r="A1127" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B1127"/>
     </row>
     <row r="1128">
       <c r="A1128" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B1128"/>
     </row>
@@ -11216,217 +11924,217 @@
     </row>
     <row r="1146">
       <c r="A1146" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B1146"/>
     </row>
     <row r="1147">
       <c r="A1147" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B1147"/>
     </row>
     <row r="1148">
       <c r="A1148" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B1148"/>
     </row>
     <row r="1149">
       <c r="A1149" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B1149"/>
     </row>
     <row r="1150">
       <c r="A1150" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="B1150"/>
     </row>
     <row r="1151">
       <c r="A1151" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B1151"/>
     </row>
     <row r="1152">
       <c r="A1152" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="B1152"/>
     </row>
     <row r="1153">
       <c r="A1153" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="B1153"/>
     </row>
     <row r="1154">
       <c r="A1154" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="B1154"/>
     </row>
     <row r="1155">
       <c r="A1155" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="B1155"/>
     </row>
     <row r="1156">
       <c r="A1156" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="B1156"/>
     </row>
     <row r="1157">
       <c r="A1157" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="B1157"/>
     </row>
     <row r="1158">
       <c r="A1158" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="B1158"/>
     </row>
     <row r="1159">
       <c r="A1159" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="B1159"/>
     </row>
     <row r="1160">
       <c r="A1160" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="B1160"/>
     </row>
     <row r="1161">
       <c r="A1161" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="B1161"/>
     </row>
     <row r="1162">
       <c r="A1162" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="B1162"/>
     </row>
     <row r="1163">
       <c r="A1163" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="B1163"/>
     </row>
     <row r="1164">
       <c r="A1164" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="B1164"/>
     </row>
     <row r="1165">
       <c r="A1165" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="B1165"/>
     </row>
     <row r="1166">
       <c r="A1166" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="B1166"/>
     </row>
     <row r="1167">
       <c r="A1167" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="B1167"/>
     </row>
     <row r="1168">
       <c r="A1168" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="B1168"/>
     </row>
     <row r="1169">
       <c r="A1169" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="B1169"/>
     </row>
     <row r="1170">
       <c r="A1170" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="B1170"/>
     </row>
     <row r="1171">
       <c r="A1171" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="B1171"/>
     </row>
     <row r="1172">
       <c r="A1172" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="B1172"/>
     </row>
     <row r="1173">
       <c r="A1173" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="B1173"/>
     </row>
     <row r="1174">
       <c r="A1174" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="B1174"/>
     </row>
     <row r="1175">
       <c r="A1175" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="B1175"/>
     </row>
     <row r="1176">
       <c r="A1176" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B1176"/>
     </row>
     <row r="1177">
       <c r="A1177" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B1177"/>
     </row>
     <row r="1178">
       <c r="A1178" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B1178"/>
     </row>
     <row r="1179">
       <c r="A1179" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B1179"/>
     </row>
     <row r="1180">
       <c r="A1180" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B1180"/>
     </row>
     <row r="1181">
       <c r="A1181" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B1181"/>
     </row>
@@ -11468,175 +12176,175 @@
     </row>
     <row r="1188">
       <c r="A1188" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B1188"/>
     </row>
     <row r="1189">
       <c r="A1189" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B1189"/>
     </row>
     <row r="1190">
       <c r="A1190" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B1190"/>
     </row>
     <row r="1191">
       <c r="A1191" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B1191"/>
     </row>
     <row r="1192">
       <c r="A1192" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B1192"/>
     </row>
     <row r="1193">
       <c r="A1193" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B1193"/>
     </row>
     <row r="1194">
       <c r="A1194" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B1194"/>
     </row>
     <row r="1195">
       <c r="A1195" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B1195"/>
     </row>
     <row r="1196">
       <c r="A1196" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B1196"/>
     </row>
     <row r="1197">
       <c r="A1197" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B1197"/>
     </row>
     <row r="1198">
       <c r="A1198" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B1198"/>
     </row>
     <row r="1199">
       <c r="A1199" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B1199"/>
     </row>
     <row r="1200">
       <c r="A1200" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B1200"/>
     </row>
     <row r="1201">
       <c r="A1201" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B1201"/>
     </row>
     <row r="1202">
       <c r="A1202" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B1202"/>
     </row>
     <row r="1203">
       <c r="A1203" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B1203"/>
     </row>
     <row r="1204">
       <c r="A1204" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B1204"/>
     </row>
     <row r="1205">
       <c r="A1205" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B1205"/>
     </row>
     <row r="1206">
       <c r="A1206" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B1206"/>
     </row>
     <row r="1207">
       <c r="A1207" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B1207"/>
     </row>
     <row r="1208">
       <c r="A1208" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B1208"/>
     </row>
     <row r="1209">
       <c r="A1209" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B1209"/>
     </row>
     <row r="1210">
       <c r="A1210" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B1210"/>
     </row>
     <row r="1211">
       <c r="A1211" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B1211"/>
     </row>
     <row r="1212">
       <c r="A1212" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B1212"/>
     </row>
     <row r="1213">
       <c r="A1213" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B1213"/>
     </row>
     <row r="1214">
       <c r="A1214" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B1214"/>
     </row>
     <row r="1215">
       <c r="A1215" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B1215"/>
     </row>
     <row r="1216">
       <c r="A1216" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B1216"/>
     </row>
@@ -11654,181 +12362,181 @@
     </row>
     <row r="1219">
       <c r="A1219" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B1219"/>
     </row>
     <row r="1220">
       <c r="A1220" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B1220"/>
     </row>
     <row r="1221">
       <c r="A1221" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B1221"/>
     </row>
     <row r="1222">
       <c r="A1222" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B1222"/>
     </row>
     <row r="1223">
       <c r="A1223" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B1223"/>
     </row>
     <row r="1224">
       <c r="A1224" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B1224"/>
     </row>
     <row r="1225">
       <c r="A1225" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B1225"/>
     </row>
     <row r="1226">
       <c r="A1226" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B1226"/>
     </row>
     <row r="1227">
       <c r="A1227" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B1227"/>
     </row>
     <row r="1228">
       <c r="A1228" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B1228"/>
     </row>
     <row r="1229">
       <c r="A1229" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B1229"/>
     </row>
     <row r="1230">
       <c r="A1230" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B1230"/>
     </row>
     <row r="1231">
       <c r="A1231" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B1231"/>
     </row>
     <row r="1232">
       <c r="A1232" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B1232"/>
     </row>
     <row r="1233">
       <c r="A1233" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B1233"/>
     </row>
     <row r="1234">
       <c r="A1234" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B1234"/>
     </row>
     <row r="1235">
       <c r="A1235" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B1235"/>
     </row>
     <row r="1236">
       <c r="A1236" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B1236"/>
     </row>
     <row r="1237">
       <c r="A1237" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B1237"/>
     </row>
     <row r="1238">
       <c r="A1238" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B1238"/>
     </row>
     <row r="1239">
       <c r="A1239" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B1239"/>
     </row>
     <row r="1240">
       <c r="A1240" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B1240"/>
     </row>
     <row r="1241">
       <c r="A1241" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B1241"/>
     </row>
     <row r="1242">
       <c r="A1242" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B1242"/>
     </row>
     <row r="1243">
       <c r="A1243" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B1243"/>
     </row>
     <row r="1244">
       <c r="A1244" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B1244"/>
     </row>
     <row r="1245">
       <c r="A1245" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B1245"/>
     </row>
     <row r="1246">
       <c r="A1246" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B1246"/>
     </row>
     <row r="1247">
       <c r="A1247" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B1247"/>
     </row>
     <row r="1248">
       <c r="A1248" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B1248"/>
     </row>
@@ -12461,6 +13169,1422 @@
         <v>1332</v>
       </c>
       <c r="B1353"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B1354"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B1355"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B1356"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1357"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1358"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1359"/>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1360"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1361"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1362"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1363"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B1364"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B1365"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B1366"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B1367"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1368"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1369"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B1370"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B1371"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B1372"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1373"/>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B1374"/>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B1375"/>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B1376"/>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B1377"/>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B1378"/>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1379"/>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B1380"/>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B1381"/>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B1382"/>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B1383"/>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B1384"/>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B1385"/>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B1386"/>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B1387"/>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B1388"/>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B1389"/>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B1390"/>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B1391"/>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B1392"/>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B1393"/>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B1394"/>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B1395"/>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B1396"/>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B1397"/>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B1398"/>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B1399"/>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B1400"/>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B1401"/>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B1402"/>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1403"/>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B1404"/>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B1405"/>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B1406"/>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B1407"/>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B1408"/>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B1409"/>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B1410"/>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B1411"/>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B1412"/>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B1413"/>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B1414"/>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B1415"/>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B1416"/>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B1417"/>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B1418"/>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B1419"/>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B1420"/>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B1421"/>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B1422"/>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B1423"/>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B1424"/>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B1425"/>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1426"/>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1427"/>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1428"/>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B1429"/>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B1430"/>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B1431"/>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B1432"/>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B1433"/>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1434"/>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B1435"/>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B1436"/>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B1437"/>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1438"/>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B1439"/>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B1440"/>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B1441"/>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B1442"/>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B1443"/>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B1444"/>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1445"/>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B1446"/>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1447"/>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B1448"/>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B1449"/>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B1450"/>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B1451"/>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B1452"/>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B1453"/>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B1454"/>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B1455"/>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B1456"/>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B1457"/>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B1458"/>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B1459"/>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1460"/>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1461"/>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B1462"/>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B1463"/>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B1464"/>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B1465"/>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B1466"/>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B1467"/>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B1468"/>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B1469"/>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B1470"/>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B1471"/>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B1472"/>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1473"/>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B1474"/>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B1475"/>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B1476"/>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B1477"/>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B1478"/>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B1479"/>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B1480"/>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B1481"/>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B1482"/>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B1483"/>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B1484"/>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B1485"/>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1486"/>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1487"/>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B1488"/>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B1489"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B1490"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B1491"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B1492"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B1493"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1494"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B1495"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B1496"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B1497"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B1498"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1499"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B1500"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B1501"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B1502"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B1503"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B1504"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B1505"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B1506"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B1507"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B1508"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B1509"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B1510"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B1511"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B1512"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B1513"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B1514"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B1515"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B1516"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B1517"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B1518"/>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B1519"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B1520"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B1521"/>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B1522"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B1523"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B1524"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1525"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B1526"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B1527"/>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B1528"/>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B1529"/>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B1530"/>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B1531"/>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B1532"/>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B1533"/>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B1534"/>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B1535"/>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B1536"/>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B1537"/>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1538"/>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B1539"/>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B1540"/>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B1541"/>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B1542"/>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B1543"/>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B1544"/>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B1545"/>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1546"/>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B1547"/>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B1548"/>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B1549"/>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B1550"/>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1551"/>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B1552"/>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B1553"/>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B1554"/>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B1555"/>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B1556"/>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B1557"/>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B1558"/>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B1559"/>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B1560"/>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B1561"/>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B1562"/>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B1563"/>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1564"/>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B1565"/>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B1566"/>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B1567"/>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B1568"/>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B1569"/>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B1570"/>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B1571"/>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B1572"/>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B1573"/>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B1574"/>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B1575"/>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B1576"/>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1577"/>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B1578"/>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B1579"/>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B1580"/>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B1581"/>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B1582"/>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B1583"/>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B1584"/>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B1585"/>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B1586"/>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B1587"/>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B1588"/>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B1589"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
